--- a/2018门店部署会员日体系/00_门店查询会员日负毛利品种，以及建议零售价.xlsx
+++ b/2018门店部署会员日体系/00_门店查询会员日负毛利品种，以及建议零售价.xlsx
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/2018门店部署会员日体系/00_门店查询会员日负毛利品种，以及建议零售价.xlsx
+++ b/2018门店部署会员日体系/00_门店查询会员日负毛利品种，以及建议零售价.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>编号</t>
   </si>
@@ -40,19 +40,7 @@
     <t>零售价</t>
   </si>
   <si>
-    <t>成本价</t>
-  </si>
-  <si>
-    <t>毛利</t>
-  </si>
-  <si>
     <t>毛利率</t>
-  </si>
-  <si>
-    <t>|||</t>
-  </si>
-  <si>
-    <t>折后零售价</t>
   </si>
   <si>
     <t>折后毛利</t>
@@ -66,6 +54,27 @@
   </si>
   <si>
     <t>会员日不亏损建议零售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>||||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均
+成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员日折后零售价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,9 +82,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+  <numFmts count="3">
     <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -151,36 +161,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -582,81 +594,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="1.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="11" customWidth="1"/>
-    <col min="14" max="14" width="19.25" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10" style="12" customWidth="1"/>
+    <col min="11" max="11" width="3.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:Q20000">
+  <conditionalFormatting sqref="A2:R20000">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
